--- a/Connexion.xlsx
+++ b/Connexion.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01cb7a83614ce55a/PROJET EN COURS/Dashbord_INS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LK\Desktop\GItHubUpload\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{D78316CC-A1D6-4504-85F0-1AB5F81186D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88BEE3E9-6FD1-4CFF-92A0-47BEBFA49D0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0573018-CB73-4908-8E80-49F6D2B5B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{01E9D6E5-9AC9-4290-BD44-720DE334CC1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId1"/>
+    <sheet name="Info (2)" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Info!$A$1:$A$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="158">
   <si>
     <t>E_AD_01</t>
   </si>
@@ -450,6 +454,66 @@
   </si>
   <si>
     <t>Statut</t>
+  </si>
+  <si>
+    <t>S_1100</t>
+  </si>
+  <si>
+    <t>S_1200</t>
+  </si>
+  <si>
+    <t>S_1300</t>
+  </si>
+  <si>
+    <t>S_1400</t>
+  </si>
+  <si>
+    <t>S_1500</t>
+  </si>
+  <si>
+    <t>S_1600</t>
+  </si>
+  <si>
+    <t>S_1700</t>
+  </si>
+  <si>
+    <t>S_1800</t>
+  </si>
+  <si>
+    <t>S_1900</t>
+  </si>
+  <si>
+    <t>S_2000</t>
+  </si>
+  <si>
+    <t>SUP801</t>
+  </si>
+  <si>
+    <t>SUP922</t>
+  </si>
+  <si>
+    <t>SUP1203</t>
+  </si>
+  <si>
+    <t>SUP854</t>
+  </si>
+  <si>
+    <t>SUP955</t>
+  </si>
+  <si>
+    <t>SUP1036</t>
+  </si>
+  <si>
+    <t>SUP1367</t>
+  </si>
+  <si>
+    <t>SUP1078</t>
+  </si>
+  <si>
+    <t>SUP849</t>
+  </si>
+  <si>
+    <t>SUP880</t>
   </si>
 </sst>
 </file>
@@ -528,10 +592,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,11 +910,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953ED773-FAF9-41EB-94F4-F908024425E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FE3993-72A0-45F6-9A41-695FD68EF9C2}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D11" si="0">C2&amp;"@gmail.com"</f>
+        <v>SUP801@gmail.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP922@gmail.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP1203@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP854@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP955@gmail.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP1036@gmail.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP1367@gmail.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP1078@gmail.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP849@gmail.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>SUP880@gmail.com</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12" si="1">C12&amp;"@gmail.com"</f>
+        <v>SG01@gmail.com</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F10D16-E6E4-42C5-822E-3DA83D18D93A}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
